--- a/biology/Microbiologie/Staphylothermus/Staphylothermus.xlsx
+++ b/biology/Microbiologie/Staphylothermus/Staphylothermus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Staphylothermus est un genre d'archées de la famille des Desulfurococcaceae. Il s'agit de microorganismes anaérobies hyperthermophiles hétérotrophes qui produisent leur énergie métabolique en oxydant le soufre. Staphylothermus marinus se développe à des températures allant de 65 à 98 °C, avec un optimum de 85 à 92 °C, préférant les environnements aqueux chauds tels que les sources hydrothermales sous-marines. Cette archée se développe idéalement à pH 6,5 mais tolère un intervalle de pH compris entre 4,5 et 8,5. Elle préfère une salinité de 1 à 3,5 % de NaCl. Staphylothermus hellenicus quant à elle se développe à une température idéalement de 85 °C, à pH 6 et dans une eau salée de 3 à 4 % de NaCl.
 Staphylothermus marinus s'agrège en grappes de raisin qui, lorsque les nutriments se font rares dans le milieu, comprennent une centaine de cellules et atteignent de 0,5 à 1 mm de large, tandis que, lorsque les nutriments sont abondants, ces agrégats peuvent atteindre 15 mm de diamètre. Cette archée possède un chromosome circulaire contenant 1 610 gènes codant des protéines et 49 gènes à ARN. La couche S comprend une glycoprotéine de 92 kDa appelée tétrabrachion qui s'organise en réseau peptidique tout autour de la cellule et résiste aux températures élevées et aux produits chimiques qui dénaturent la plupart des autres protéines.
